--- a/work_out_files/metrics_summary_file.xlsx
+++ b/work_out_files/metrics_summary_file.xlsx
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9486052086738586</v>
+        <v>0.9487032799389779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9433161214647867</v>
+        <v>0.943078634153075</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9486052086738586</v>
+        <v>0.9487032799389779</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9382786794254259</v>
+        <v>0.9383652640608233</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04877967799411079</v>
+        <v>0.0482280533236697</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05065704200262323</v>
+        <v>0.05060722202633464</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04877967799411079</v>
+        <v>0.0482280533236697</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0515471361401281</v>
+        <v>0.05126769446794536</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7791762013729977</v>
+        <v>0.7864225781845919</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7778073184435872</v>
+        <v>0.7872906718385223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7791762013729977</v>
+        <v>0.7864225781845919</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7768471823643884</v>
+        <v>0.7831637240824391</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9387871853546911</v>
+        <v>0.9429824561403508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9303150110476461</v>
+        <v>0.9360374286231316</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9387871853546911</v>
+        <v>0.9429824561403508</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9243321669195723</v>
+        <v>0.9300699916820448</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9607170099160945</v>
+        <v>0.9603356216628528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9572450669015721</v>
+        <v>0.9576300588995028</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9607170099160945</v>
+        <v>0.9603356216628528</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9520672793097094</v>
+        <v>0.9496149427735556</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9821700991609459</v>
+        <v>0.9802631578947368</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9798582482790044</v>
+        <v>0.9776320668894856</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9821700991609459</v>
+        <v>0.9802631578947368</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9743678026979405</v>
+        <v>0.9727968902495393</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9959954233409611</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9960114599751793</v>
+        <v>0.9956332717759311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9959954233409611</v>
+        <v>0.9956140350877193</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9939971522135932</v>
+        <v>0.9934258723732408</v>
       </c>
     </row>
   </sheetData>
